--- a/03.Clasificacion/Other_cycles/Other_cycles_p/P_RDE_95.xlsx
+++ b/03.Clasificacion/Other_cycles/Other_cycles_p/P_RDE_95.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93353.91481</v>
+        <v>57042.59815</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6568</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.16062</v>
+        <v>73.3143</v>
       </c>
     </row>
     <row r="5">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105.22531</v>
+        <v>116.30215</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.60826</v>
+        <v>0.5265300000000001</v>
       </c>
     </row>
     <row r="8">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2672</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2614</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5286</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.24017</v>
+        <v>0.21728</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.60439</v>
+        <v>-0.59766</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.4706</v>
+        <v>-2.19051</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.4458</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56943</v>
+        <v>98.03570999999999</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.31669</v>
+        <v>19.17857</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80.25274</v>
+        <v>78.85714</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1451.62546</v>
+        <v>552.59028</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01555</v>
+        <v>0.009690000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3982.93449</v>
+        <v>1568.13356</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04266</v>
+        <v>0.02749</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3971.63218</v>
+        <v>1568.13356</v>
       </c>
     </row>
   </sheetData>
